--- a/Excel_Functions.xlsx
+++ b/Excel_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naseema\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA9AAFF-6F99-4FD4-A1A2-6D1F7884E33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E14FC-6971-47F6-89B2-96A3C11D03DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BB0CFFF-B517-4082-A520-315A5D306783}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -121,6 +143,15 @@
   </si>
   <si>
     <t>Kavya</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Unique</t>
   </si>
 </sst>
 </file>
@@ -144,15 +175,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,17 +215,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4CFF66-F52C-4B51-B5E9-4F09CAE491F5}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,33 +610,43 @@
     <col min="8" max="8" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -554,8 +671,20 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="5">
+        <f>INDEX(A2:H11,10,7)</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="9">
+        <f>MATCH(E2,E2:E11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="str" cm="1">
+        <f t="array" ref="L2:L4">_xlfn.UNIQUE(C2:C11)</f>
+        <v>IT</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>202</v>
       </c>
@@ -580,8 +709,13 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="10" t="str">
+        <v>HR</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>203</v>
       </c>
@@ -606,8 +740,13 @@
       <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="10" t="str">
+        <v>Finance</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>204</v>
       </c>
@@ -633,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>205</v>
       </c>
@@ -659,7 +798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>206</v>
       </c>
@@ -685,7 +824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>207</v>
       </c>
@@ -711,7 +850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>208</v>
       </c>
@@ -737,7 +876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>209</v>
       </c>
@@ -763,7 +902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>210</v>
       </c>

--- a/Excel_Functions.xlsx
+++ b/Excel_Functions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naseema\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naseema\Desktop\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E14FC-6971-47F6-89B2-96A3C11D03DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D446CE-BB4D-48C1-9829-91252C906CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BB0CFFF-B517-4082-A520-315A5D306783}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Good</t>
   </si>
   <si>
-    <t>Kiran</t>
-  </si>
-  <si>
     <t>Excellent</t>
   </si>
   <si>
@@ -152,6 +149,18 @@
   </si>
   <si>
     <t>Unique</t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>COUNTIFS</t>
+  </si>
+  <si>
+    <t>SUMIFS</t>
+  </si>
+  <si>
+    <t>AVERAGEIFS</t>
   </si>
 </sst>
 </file>
@@ -175,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +212,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,14 +280,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,6 +307,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -593,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4CFF66-F52C-4B51-B5E9-4F09CAE491F5}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,45 +662,58 @@
     <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -671,20 +738,40 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>INDEX(A2:H11,10,7)</f>
         <v>8</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <f>MATCH(E2,E2:E11,1)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="str" cm="1">
+      <c r="L2" s="9" t="str" cm="1">
         <f t="array" ref="L2:L4">_xlfn.UNIQUE(C2:C11)</f>
         <v>IT</v>
       </c>
+      <c r="M2" s="11">
+        <f>COUNTIFS(F2:F11,45000)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="13">
+        <f>SUMIFS(F2:F11, B2:B11, "Rahul")</f>
+        <v>97000</v>
+      </c>
+      <c r="O2" s="17">
+        <f>AVERAGEIFS(F2:F11,B2:B11,"Rahul")</f>
+        <v>48500</v>
+      </c>
+      <c r="P2" s="16" t="str" cm="1">
+        <f t="array" ref="P2">_xlfn.IFS(
+F2&gt;=60000,"High",
+F2&gt;=45000,"Medium",
+F2&lt;45000,"Low"
+)</f>
+        <v>Medium</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>202</v>
       </c>
@@ -709,18 +796,18 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="10" t="str">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="9" t="str">
         <v>HR</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -738,29 +825,29 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="10" t="str">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="9" t="str">
         <v>Finance</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>60000</v>
@@ -769,15 +856,15 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -798,12 +885,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>206</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -824,21 +911,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>207</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1">
         <v>58000</v>
@@ -850,12 +937,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -873,15 +960,15 @@
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -902,15 +989,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>210</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -925,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
